--- a/res/test_data/erdri/erdri_cds_test_data.xlsx
+++ b/res/test_data/erdri/erdri_cds_test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documents\dataspell\rarelink_phenopacket_mapper\res\test_data\erdri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documents\dataspell\phenopacket_mapper\res\test_data\erdri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E5AF1-55E6-4904-891A-B298A341A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEC1426-3962-458B-BCEA-2285E403D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>1.1. Pseudonym</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t>HP:0002678</t>
+  </si>
+  <si>
+    <t>patient0</t>
+  </si>
+  <si>
+    <t>patient1</t>
+  </si>
+  <si>
+    <t>patient2</t>
+  </si>
+  <si>
+    <t>patient3</t>
+  </si>
+  <si>
+    <t>patient4</t>
+  </si>
+  <si>
+    <t>patient5</t>
+  </si>
+  <si>
+    <t>patient6</t>
+  </si>
+  <si>
+    <t>patient7</t>
+  </si>
+  <si>
+    <t>patient8</t>
+  </si>
+  <si>
+    <t>patient9</t>
   </si>
 </sst>
 </file>
@@ -462,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -507,8 +537,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2.2002000000000002</v>
@@ -536,8 +566,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -569,8 +599,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -600,8 +630,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -629,8 +659,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>38201</v>
@@ -658,8 +688,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>"08-04-1923"</f>
@@ -688,8 +718,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1999</v>
@@ -717,8 +747,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>"12-2003"</f>
@@ -749,8 +779,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>41</v>
       </c>
       <c r="B10" t="str">
         <f>"09/1979"</f>
@@ -782,8 +812,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2002</v>
